--- a/mahout/src/dataset - Copy.xlsx
+++ b/mahout/src/dataset - Copy.xlsx
@@ -16,28 +16,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="8">
   <si>
-    <t>MemberID</t>
-  </si>
-  <si>
-    <t>MemberName</t>
-  </si>
-  <si>
     <t>ItemID</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Member A</t>
+    <t>BuyerName</t>
   </si>
   <si>
-    <t>Mamber B</t>
+    <t>BuyerID</t>
   </si>
   <si>
-    <t>Member C</t>
+    <t>Buyer A</t>
   </si>
   <si>
-    <t>Member D</t>
+    <t>Buyer C</t>
+  </si>
+  <si>
+    <t>Buyer D</t>
+  </si>
+  <si>
+    <t>Buyer B</t>
   </si>
 </sst>
 </file>
@@ -872,7 +872,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,16 +885,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1025,7 +1025,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1053,7 +1053,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1109,7 +1109,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
         <v>3</v>
@@ -1235,7 +1235,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>4</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>4</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>4</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>4</v>
@@ -1333,7 +1333,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>4</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>4</v>
@@ -1361,7 +1361,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>4</v>
